--- a/Results/Ger_age_PO.xlsx
+++ b/Results/Ger_age_PO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,20 +464,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>DI-NN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7012867647058824</v>
+        <v>0.768841911764706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1142466822794692</v>
+        <v>0.05558157689305229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002442002442002433</v>
+        <v>0.01343101343101341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.768841911764706</v>
+        <v>0.7803308823529411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05558157689305229</v>
+        <v>0.02540983606557376</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01343101343101341</v>
+        <v>0.05372405372405373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -506,70 +506,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7803308823529411</v>
+        <v>0.7509191176470589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02540983606557376</v>
+        <v>0.04207650273224045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05372405372405373</v>
+        <v>0.04273504273504275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1333333333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DI-NN</t>
+          <t>Reweighing-NN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7509191176470589</v>
+        <v>0.7683823529411765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04207650273224045</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04273504273504275</v>
+        <v>0.1086691086691087</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DI-RF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7270220588235294</v>
+        <v>0.7761948529411765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1594847775175644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.03663003663003661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DI-RF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7352941176470587</v>
+        <v>0.7867647058823529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05476190476190476</v>
+        <v>0.08520686963309915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1001221001221001</v>
+        <v>0.1025641025641025</v>
       </c>
       <c r="E7" t="n">
         <v>0.03333333333333333</v>
@@ -578,191 +578,229 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-NN</t>
+          <t>FAIR-Bernoulli</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7095588235294118</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03298204527712723</v>
+        <v>0.2259562841530054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004884004884004867</v>
+        <v>0.002442002442002433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-NN</t>
+          <t>FAIR-betaREP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7683823529411765</v>
+        <v>0.7803308823529412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04098360655737705</v>
+        <v>0.1976580796252927</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1086691086691087</v>
+        <v>0.03663003663003661</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-NN</t>
+          <t>FAD-prob</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7605698529411765</v>
+        <v>0.752297794117647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008196721311475308</v>
+        <v>0.06908665105386416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08669108669108669</v>
+        <v>0.06959706959706957</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FAIR-scalar</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7761948529411765</v>
+        <v>0.7605698529411765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1594847775175644</v>
+        <v>0.0008196721311475308</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03663003663003661</v>
+        <v>0.08669108669108669</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FAIR-scalar</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7867647058823529</v>
+        <v>0.7381659737784418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08520686963309915</v>
+        <v>6.625416088151528e-08</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1025641025641025</v>
+        <v>1.318090464536575e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03333333333333333</v>
+        <v>4.605069628072188e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5955882352941176</v>
+        <v>0.7868884866454955</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12.1446</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.02611489437864884</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12.455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FAIR-Bernoulli</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7647058823529412</v>
+        <v>0.75024757366117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2259562841530054</v>
+        <v>0.02239091550604687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002442002442002433</v>
+        <v>0.04098031493691993</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.02777777923567052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaREP</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6645220588235294</v>
+        <v>0.7599524657169453</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002888368462138954</v>
+        <v>4.5646</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03418803418803418</v>
+        <v>0.07874648478302633</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05376345424234005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaREP</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7803308823529412</v>
+        <v>0.7441077440239091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1976580796252927</v>
+        <v>3.4655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03663003663003661</v>
+        <v>0.01165126593958601</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
+        <v>0.244444443498145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FAD-prob</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.752297794117647</v>
+        <v>0.7338086749729946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06908665105386416</v>
+        <v>2.981038544459246e-11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06959706959706957</v>
+        <v>2.155263182659541e-11</v>
       </c>
       <c r="E17" t="n">
+        <v>2.930542005010885e-11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CLFR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6400277282630223</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6755793226388519</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.247583763178962e-12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.576421284115639e-13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.995784101353737e-12</v>
       </c>
     </row>
   </sheetData>
